--- a/output/Restab_D62_NTCwRAPA_DIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCwRAPA_DIFF_RAPA.xlsx
@@ -12,45 +12,858 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonferroni_2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta_2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bonferroni_2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEbrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEblue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEgreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEblack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEturquoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEyellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEgrey</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+  <si>
+    <t xml:space="preserve">entrezgene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2FC_2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdr_2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log2FC_2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fdr_2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPHB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFI6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNALI1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMP8B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFSD2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAB3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAP276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TXNIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNJ10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAP126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGS5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLHDC8A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFTY2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNG4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GFRA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTRA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPON1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANO5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">374393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM111B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AHNAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNIH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHLHE41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101929005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMEM132B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFNB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAAM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBLN5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THBS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTRK3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIN2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">729993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHISA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPRC5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRKCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOXJ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST8SIA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEC11C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">404217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAVL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDF15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYH14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GYPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAP210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRNA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGFBP5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KCNJ13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SULF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21orf62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RCAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OSBPL10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRRC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAM107A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">132204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL8A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPON2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADGRL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAMTS3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">134121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFNA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOCK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBEGF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPX3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WWC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPLX2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PXDC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTNBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCGN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFAP2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPIL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDC170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPNMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFRP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSC22D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINE1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPR37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPYSL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STMN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMRT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDKN2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPB41L4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRINP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIF1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUP214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CETN2</t>
   </si>
 </sst>
 </file>
@@ -398,141 +1211,2916 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.0219616791207887</v>
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-0.584449239901585</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0428009758916121</v>
+        <v>0.0160149878700006</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>-0.915507357831478</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00135414539896763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0684611886362808</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-0.701078256951751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.140376254932758</v>
+        <v>0.00804074488073751</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-0.781516021854826</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0313285637067577</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0490631410354048</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1.15518489920057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.088715927472809</v>
+        <v>0.00745799916330178</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>1.11232449016013</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0275314303378439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0384581113024636</v>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>-4.36964529848476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.017878102642228</v>
+        <v>0.0000880362901537765</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>-4.13975930574421</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.000545905212426088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.200847278573835</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00355725112018638</v>
+        <v>1.22812347941229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.278848533279512</v>
+        <v>0.00000196573294370861</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0120738510158684</v>
+        <v>1.75521614084972</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0000000000011227118434493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0234028930027284</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.799383362465059</v>
+        <v>1.64937070002573</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0148637607731275</v>
+        <v>0.0044651998945151</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2.48778241661179</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0000000659400085443513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.00412048966903656</v>
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.918398215816305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0454592758356067</v>
+        <v>0.0000075791972035823</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.778445796506235</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0275314303378439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.133409039547051</v>
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.743595737167814</v>
+        <v>1.89337127210304</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.189191336428048</v>
+        <v>0.00150146479679655</v>
       </c>
       <c r="E9" t="n">
-        <v>0.588009502093906</v>
+        <v>1.76723960982322</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00399564017528186</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.68827236833454</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.000283998725885544</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.45953151714265</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.000000100336127026598</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.12192596364169</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00285105494704708</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.18367958634826</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00629546265351454</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.14648705914637</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.000000829919963383184</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.689609781795196</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0402217042195269</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.20446221723475</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.000137367905059328</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.12876944498461</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.00216993804058032</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.83995309621961</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.000271790651843123</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.81092355334596</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000000000273562389269257</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.943036053985456</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.00178661568859204</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.32735095617615</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.00000449579176175282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.695102144805089</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0463635505804998</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.08641269387466</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.00086504620485787</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="n">
+        <v>-2.14518715925755</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00000000000000000258549932450258</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.78307914733073</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0000000000000000000000417911643759972</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.14683671141605</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0138590712444869</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-2.51187045696618</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00000214900795025175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.34365571060335</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0044651998945151</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.13981293425054</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00000015625838009236</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.88461159306592</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0000000000000167904046373301</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.03151674328393</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0000512676580127053</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="n">
+        <v>1.80626795255336</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00000170908855003598</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.27857939436233</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0219742498140426</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.72766731926086</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0000754060351102917</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.99090319700589</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0000722539636579169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.926512129369602</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0000210527002122811</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.928614781394674</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00141928808461936</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.94825769287647</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00000000000000000000000000000969051899852065</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.33319928385235</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0000000000000000000000000000000000000178937768856462</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.38800073651726</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.00310309636227254</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.75238000228386</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0000723188094815436</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.748039305832039</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.00899092631673528</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.0202639613783</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00791254929110591</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.28919560055945</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0303627456609386</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.54205474565734</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0152283099229637</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.665471431834356</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0414365488773583</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.804876880638914</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0320102648657979</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.87765503327435</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00010406222759386</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.08473197384828</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00000268587563064958</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.51906106975502</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.00000000000319358200871363</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.42225151682079</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.00000143993974270499</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.2106415339382</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.000690559331752348</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.2313105437596</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.00399564017528186</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.66837276169963</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.00000896264696149883</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.82371514351874</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.00000211042518582406</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33" t="n">
+        <v>-6.97080418645021</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.000441842317520335</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-4.60292039113007</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.0090086032516297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.04234229728539</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.00000000000000559139931498964</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.49606370031129</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.00000484605877053329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.62937478493242</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.00103807669091159</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.24056516139862</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0416359709796243</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.964957965702457</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0000672836793423646</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.10989834805526</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.000214566500735572</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.754947599209961</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0271614458820956</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.831928171943612</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0275314303378439</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.76340566144609</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.00000000000233349466174912</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.55368470606744</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.000277034771439728</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.57386661497107</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0429905008595594</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-1.96982209982876</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0160776162944452</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.00171821112898</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.000000000000000000000000132384588388485</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.54862821245788</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.00000000000000000000468723678310958</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41"/>
+      <c r="C41" t="n">
+        <v>4.94398717967208</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.00486767240476504</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.75585227040953</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0000373789894074475</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.36709065476884</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00216518284654223</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.06968224798034</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0000040519972408162</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.973171407153338</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0000000283826278036157</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.14401732110383</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0000149351374335924</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.5301080089932</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.0000000482951482093532</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.30011807152044</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.000184861202642754</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.68068551717371</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.000031264892142198</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.53847002348311</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.000435978295080676</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-3.8906883746027</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.000000000000000000000690044467496145</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-1.37726484069248</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.00330151599250503</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.696540384991837</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.0153599538257519</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.719993917468758</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0440083994551934</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-6.44990330660102</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.000000000031516420916302</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-2.79699917866653</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0132208683078708</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.57472491115514</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.000000000000000301665935478259</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-2.88955835501195</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.000000220561320749982</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="n">
+        <v>3.11380048592387</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.000000338446381052856</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.4374344432226</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.000000000722431958253346</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.97315089704998</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0027857773997164</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2.47086431703671</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0000014887662336665</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52" t="n">
+        <v>1.06766105290093</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.00000000337926305167022</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.11740319625187</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.00000958057634791959</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.61725453456076</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0021380318731748</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1.9663057426459</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.00000375997206209312</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54"/>
+      <c r="C54" t="n">
+        <v>1.07412218630216</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.00714606367871616</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.35921588079874</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.000290708615068576</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.890588049877217</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.00189226367598811</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.97457930316293</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.00676877788033583</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56"/>
+      <c r="C56" t="n">
+        <v>-1.24763823228428</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.00000515924041764587</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-1.28734905677178</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.00170227926939714</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.713999525800506</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0202843298733383</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.834275989754698</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0300791530001954</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-2.20353020279642</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.00000000012185509809822</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-2.14482070343894</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.00000188037481041051</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.25199977895504</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.00000467930758718555</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.34655367218552</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.00118613498582564</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-4.530913818388</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.00477495009288326</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-4.09691890547189</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0320102648657979</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.56358781716721</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.00000000000000000224162214545732</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.34730288067301</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.000000000000000107333969998725</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.94529386566204</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.000584281473693911</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.27679586442868</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0000000883729583443214</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.30740945716347</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0027857773997164</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.60478746014264</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.00110949112385557</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.655705425891768</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0322983375073812</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.776003704209717</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0434829865205822</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="n">
+        <v>1.06545689152962</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.000069738260163203</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.00748578412035</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.000955265940503449</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.38583140911243</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0000186619453372992</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.20258788167664</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.000000000000319158961515249</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.742686227062703</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0462967604169175</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-1.69333321195871</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0000406564371853644</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-2.32844571450639</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0183863862885124</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-3.33983905095129</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.00102754196198229</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.16835267192693</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0027857773997164</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.67260245848903</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.00000375997206209312</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-5.22020735651635</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.0000000366404506617196</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-3.41393992839312</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0000373789894074475</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71" t="n">
+        <v>-0.976764415453629</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.00898830144831184</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-1.6615968118902</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.00000434442365432876</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2.33748855069331</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.00000487782927934771</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-2.12572632798562</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.00000239101389902006</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.77505586336198</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0475549298157025</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2.16954032468745</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.00581393057127979</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.36406260303253</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.00147167938075989</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2.41626857589495</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.00499550716499387</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-5.20426807073298</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0000000000219109459156882</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-8.50378780381433</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0000000406666049520898</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-1.32579062391481</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.000173458017150293</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-1.04320769493261</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0240522492429139</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.03468184670826</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.0000154489795258686</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.847698166729183</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0116196839330007</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-1.20714063620616</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.00146099074348004</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-1.28923855670257</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0034172354127907</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-1.38444844797126</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.000000215251924527474</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-1.2467958161723</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.000421246626877749</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.19503691524781</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0044651998945151</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.40524798256921</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.00100489540541964</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.75479138995897</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.024272827780457</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.43871140602678</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0000298474528295745</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.687778285694</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.000000000000000000000000047929254218941</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.20061384973372</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.000000000000000000000000000415230884829417</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-1.42898759954465</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.0106462730428566</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-1.77801679894341</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0255696541282572</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.06347630945337</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.0000447299177913824</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.876942291759427</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0279077323548833</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85" t="n">
+        <v>-1.15274374860793</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.00565228788485917</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-1.1581057142109</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.0113453966183181</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.718713126784379</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.00232000402587852</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.936236321038266</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.000173203749192513</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.94925550553472</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.00803867550965818</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.90583428804207</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.0355558954756714</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.91513300618644</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.00165917120985377</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.74493141902509</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0167739461911071</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-1.94322268158493</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0044819646272129</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-1.73428257430268</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.0318588332356717</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.43708700638771</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.00232123456846209</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.6464220757397</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.000234015227631181</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.5017571366502</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.000114732831898781</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.13674451387719</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0000000593411259833972</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.4033067960367</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0322983375073812</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.45418903529001</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.0416359709796243</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.85060043317065</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.00019269046223316</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.64278855797957</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.000231173510292434</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-4.54729350295737</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.00666108987483065</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.74024610384223</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0275314303378439</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.729692493768584</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.0171371767197881</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.868348372421086</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.00152692561964254</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-3.71845643550444</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000172139617206185</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-2.83733195564668</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.00000000000000000000000000000556207640655799</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.09363549321768</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.000000525320236843548</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.803754397689688</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0413028218613005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.56645661707117</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.000137367905059328</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.76106511477047</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.000000172367864892117</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-2.46595613133185</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.0126291196964365</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-2.83439353019154</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.00224988518447441</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100" t="n">
+        <v>-1.95734672585151</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.0089490566780948</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-2.35866586979121</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.000231173510292434</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101"/>
+      <c r="C101" t="n">
+        <v>1.09355165792507</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.00000753644770157561</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.02778941992658</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.00553066751730722</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-3.37500332850528</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.0000000000705535099449452</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1.76365875249471</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.00136308415809864</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.23291990183052</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.000395152878089862</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.47364366152827</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.000223869152101233</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>198</v>
+      </c>
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" t="n">
+        <v>8.14861612590962</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.000133990638554708</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.80707856464779</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.000212917976359592</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105" t="n">
+        <v>1.96013346525968</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.000187335169103151</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.73279015667619</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.000000000231109738372651</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>201</v>
+      </c>
+      <c r="B106" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.905497241816058</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.0217281763485077</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.01686450822415</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.0286341592012556</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.66689208369029</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.00000115272108202777</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.70497584830446</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.0000272381623143605</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>205</v>
+      </c>
+      <c r="B108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.808231417493542</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.000739523501757592</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-1.50559909701444</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0000000019368964509697</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-1.1952779389824</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.00832368739024889</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-2.23852610573106</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0000000659400085443513</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>209</v>
+      </c>
+      <c r="B110" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.43840322371475</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.000000000000000000000000000000000107517905109629</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.52551634794373</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.00000000000000000144472062450443</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.709754113167069</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.0480686978486905</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.21336550156527</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0000238194030919825</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" t="s">
+        <v>214</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-1.3039232860335</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.000000043678990811962</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-2.09687520653674</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0000000000896994671871644</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.01465856950973</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.00381216431945817</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.29498888750968</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.000118182460740617</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>217</v>
+      </c>
+      <c r="B114" t="s">
+        <v>218</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.90702143817317</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0308435694210633</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.92074541178838</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0274207100278682</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115"/>
+      <c r="C115" t="n">
+        <v>6.14288617522509</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.00311437922674837</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.88676742578808</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.0000373789894074475</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.4609869533499</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.000441842317520335</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.40083389325385</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.000000100336127026598</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>222</v>
+      </c>
+      <c r="B117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.642762120222705</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.00565125932982001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.850361146546255</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.00773241969914286</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>224</v>
+      </c>
+      <c r="B118" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.934505687149611</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.0144472331078535</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-1.07346174469345</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.00772101863149456</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>226</v>
+      </c>
+      <c r="B119"/>
+      <c r="C119" t="n">
+        <v>1.04957361957384</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.000136973381796851</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.06148462463572</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.00304688629191054</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>227</v>
+      </c>
+      <c r="B120" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.41881214702155</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.000000000061571385383943</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.58487497633645</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.0000000000000000000000000614130094667423</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-8.81353788186957</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.00000010032633918729</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-3.865771862773</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.000255014578828248</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>231</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.92860562795559</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.0103553128308809</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.09360617986609</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.00318202620890984</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.995183154546538</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.000069738260163203</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.763318392632689</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0256154716047065</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>235</v>
+      </c>
+      <c r="B124" t="s">
+        <v>236</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.15772172958133</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.0446785850656916</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.81561073014316</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.00839246895509292</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>237</v>
+      </c>
+      <c r="B125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-1.5288282811624</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.000842595323550116</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-2.16893895975867</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.0000000915212850372868</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.15197988951146</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0000798993572431395</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.2202466750471</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.0000000000000168049281009274</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>241</v>
+      </c>
+      <c r="B127" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-0.782807158680983</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.000439252068093957</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-1.34606380548588</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.00000013152711622542</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>244</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-0.617206048000231</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0187465256967219</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-0.780178488608907</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0299662510901819</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.68258922661222</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0000000139741654176305</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.25601340065509</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.00318532021328652</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.36521183581277</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.00232123456846209</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.82531855086604</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.000126044996487215</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.61047657491425</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.00000000123423551732007</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.42189899493382</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.0000022448019990976</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>251</v>
+      </c>
+      <c r="B132" t="s">
+        <v>252</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.01024876088993</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.000000065341252302842</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.06133967441643</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.00000343396525111914</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" t="s">
+        <v>254</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-2.59604068380505</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.00222992401878075</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-1.95247954346271</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.045873996797883</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>255</v>
+      </c>
+      <c r="B134" t="s">
+        <v>256</v>
+      </c>
+      <c r="C134" t="n">
+        <v>4.30959791907755</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0170112684475557</v>
+      </c>
+      <c r="E134" t="n">
+        <v>5.85261062220342</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.00000000883674020292072</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>257</v>
+      </c>
+      <c r="B135" t="s">
+        <v>258</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.874283313517964</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.000217592296615992</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.785839939656421</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0170741963450527</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>259</v>
+      </c>
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.07585053265</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.0027857773997164</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.00036490485653</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0113453966183181</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>261</v>
+      </c>
+      <c r="B137" t="s">
+        <v>262</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-8.11177056176752</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.00000896264696149883</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-5.72904267382439</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.000582293207063254</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>264</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-1.03671328405075</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.00126313068538319</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-1.0483346602664</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.00438098071706267</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" t="s">
+        <v>266</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.46389935937504</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.00000000472765190930302</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.65247930755632</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0000000593411259833972</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140"/>
+      <c r="C140" t="n">
+        <v>2.34380851978486</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.0044651998945151</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.23712172514933</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.00289782103512969</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>268</v>
+      </c>
+      <c r="B141" t="s">
+        <v>269</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-1.09460688258443</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.00198435391619088</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-1.15672144865402</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.000491429388005726</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.9326319606767</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0276053763698882</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.72848676202682</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.0000294945921379119</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>272</v>
+      </c>
+      <c r="B143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-0.937239067984402</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.00113807806521581</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-0.906921231942016</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.0256154716047065</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.875181098194123</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.00391170362673458</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-0.987158210952434</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.00561632988145198</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>276</v>
+      </c>
+      <c r="B145" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-2.01247166754518</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.0000000000000000000495775280419559</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-1.90365999534868</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.00000000796277930037197</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>278</v>
+      </c>
+      <c r="B146" t="s">
+        <v>279</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.28213591879591</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.0000197442595352198</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.00762745619003</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.0121122584553105</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" t="s">
+        <v>281</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.73331850846153</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.000000000000000000977249969355385</v>
+      </c>
+      <c r="E147" t="n">
+        <v>5.00315338567222</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000176459790153296</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>282</v>
+      </c>
+      <c r="B148" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.672201474594725</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.0107299270120077</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.977965315656208</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.0000971226944526423</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCwRAPA_DIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCwRAPA_DIFF_RAPA.xlsx
@@ -1223,16 +1223,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.584449239901585</v>
+        <v>-0.584449239901613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0160149878700006</v>
+        <v>0.0160149878118034</v>
       </c>
       <c r="E2" t="n">
         <v>-0.915507357831478</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00135414539896763</v>
+        <v>0.00135414539889671</v>
       </c>
     </row>
     <row r="3">
@@ -1243,16 +1243,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.701078256951751</v>
+        <v>-0.701078256951668</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00804074488073751</v>
+        <v>0.00804074485339176</v>
       </c>
       <c r="E3" t="n">
         <v>-0.781516021854826</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0313285637067577</v>
+        <v>0.0313285637021473</v>
       </c>
     </row>
     <row r="4">
@@ -1263,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1.15518489920057</v>
+        <v>1.15518489920049</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00745799916330178</v>
+        <v>0.00745799915568563</v>
       </c>
       <c r="E4" t="n">
-        <v>1.11232449016013</v>
+        <v>1.11232449016015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0275314303378439</v>
+        <v>0.0275314303309311</v>
       </c>
     </row>
     <row r="5">
@@ -1286,13 +1286,13 @@
         <v>-4.36964529848476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0000880362901537765</v>
+        <v>0.0000880362901525914</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.13975930574421</v>
+        <v>-4.13975930574207</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000545905212426088</v>
+        <v>0.000545905212177512</v>
       </c>
     </row>
     <row r="6">
@@ -1303,16 +1303,16 @@
         <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>1.22812347941229</v>
+        <v>1.22812347941224</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00000196573294370861</v>
+        <v>0.00000196573293372399</v>
       </c>
       <c r="E6" t="n">
-        <v>1.75521614084972</v>
+        <v>1.75521614084973</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0000000000011227118434493</v>
+        <v>0.00000000000112271184301451</v>
       </c>
     </row>
     <row r="7">
@@ -1323,16 +1323,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1.64937070002573</v>
+        <v>1.64937070002581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0044651998945151</v>
+        <v>0.00446519989198414</v>
       </c>
       <c r="E7" t="n">
         <v>2.48778241661179</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0000000659400085443513</v>
+        <v>0.0000000659400085065105</v>
       </c>
     </row>
     <row r="8">
@@ -1343,16 +1343,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.918398215816305</v>
+        <v>0.918398215816364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0000075791972035823</v>
+        <v>0.00000757919714263361</v>
       </c>
       <c r="E8" t="n">
-        <v>0.778445796506235</v>
+        <v>0.778445796506233</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0275314303378439</v>
+        <v>0.0275314303309311</v>
       </c>
     </row>
     <row r="9">
@@ -1363,16 +1363,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>1.89337127210304</v>
+        <v>1.89337127210298</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00150146479679655</v>
+        <v>0.00150146478945203</v>
       </c>
       <c r="E9" t="n">
         <v>1.76723960982322</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00399564017528186</v>
+        <v>0.00399564017470349</v>
       </c>
     </row>
     <row r="10">
@@ -1383,16 +1383,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>1.68827236833454</v>
+        <v>1.68827236833429</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000283998725885544</v>
+        <v>0.000283998725562424</v>
       </c>
       <c r="E10" t="n">
-        <v>2.45953151714265</v>
+        <v>2.45953151714264</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000000100336127026598</v>
+        <v>0.000000100336126979496</v>
       </c>
     </row>
     <row r="11">
@@ -1403,16 +1403,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.12192596364169</v>
+        <v>-1.12192596364139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00285105494704708</v>
+        <v>0.00285105494235954</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.18367958634826</v>
+        <v>-1.18367958634836</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00629546265351454</v>
+        <v>0.00629546265232265</v>
       </c>
     </row>
     <row r="12">
@@ -1423,16 +1423,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.14648705914637</v>
+        <v>-1.14648705914653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000000829919963383184</v>
+        <v>0.000000829919957961252</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.689609781795196</v>
+        <v>-0.68960978179519</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0402217042195269</v>
+        <v>0.0402217042098016</v>
       </c>
     </row>
     <row r="13">
@@ -1443,16 +1443,16 @@
         <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.20446221723475</v>
+        <v>-1.20446221723465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.000137367905059328</v>
+        <v>0.000137367904817757</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.12876944498461</v>
+        <v>-1.1287694449846</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00216993804058032</v>
+        <v>0.00216993804001107</v>
       </c>
     </row>
     <row r="14">
@@ -1463,16 +1463,16 @@
         <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>2.83995309621961</v>
+        <v>2.83995309621955</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000271790651843123</v>
+        <v>0.000271790651765347</v>
       </c>
       <c r="E14" t="n">
-        <v>3.81092355334596</v>
+        <v>3.81092355334598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.000000000273562389269257</v>
+        <v>0.000000000273562389077564</v>
       </c>
     </row>
     <row r="15">
@@ -1483,16 +1483,16 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>0.943036053985456</v>
+        <v>0.943036053985406</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00178661568859204</v>
+        <v>0.00178661568330679</v>
       </c>
       <c r="E15" t="n">
         <v>1.32735095617615</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00000449579176175282</v>
+        <v>0.00000449579176116799</v>
       </c>
     </row>
     <row r="16">
@@ -1503,16 +1503,16 @@
         <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>0.695102144805089</v>
+        <v>0.695102144805079</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0463635505804998</v>
+        <v>0.0463635504976616</v>
       </c>
       <c r="E16" t="n">
-        <v>1.08641269387466</v>
+        <v>1.08641269387467</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00086504620485787</v>
+        <v>0.000865046204765389</v>
       </c>
     </row>
     <row r="17">
@@ -1521,16 +1521,16 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="n">
-        <v>-2.14518715925755</v>
+        <v>-2.14518715925798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00000000000000000258549932450258</v>
+        <v>0.00000000000000000258549929328114</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.78307914733073</v>
+        <v>-2.7830791473308</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0000000000000000000000417911643759972</v>
+        <v>0.000000000000000000000041791164334379</v>
       </c>
     </row>
     <row r="18">
@@ -1541,16 +1541,16 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.14683671141605</v>
+        <v>-1.1468367114161</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0138590712444869</v>
+        <v>0.0138590712320382</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.51187045696618</v>
+        <v>-2.51187045696589</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00000214900795025175</v>
+        <v>0.00000214900794922995</v>
       </c>
     </row>
     <row r="19">
@@ -1561,16 +1561,16 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>2.34365571060335</v>
+        <v>2.34365571060342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0044651998945151</v>
+        <v>0.00446519989198414</v>
       </c>
       <c r="E19" t="n">
-        <v>3.13981293425054</v>
+        <v>3.13981293425075</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00000015625838009236</v>
+        <v>0.000000156258379968176</v>
       </c>
     </row>
     <row r="20">
@@ -1581,16 +1581,16 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>3.88461159306592</v>
+        <v>3.8846115930659</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0000000000000167904046373301</v>
+        <v>0.0000000000000167904046041804</v>
       </c>
       <c r="E20" t="n">
-        <v>3.03151674328393</v>
+        <v>3.03151674328375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0000512676580127053</v>
+        <v>0.0000512676579870091</v>
       </c>
     </row>
     <row r="21">
@@ -1599,16 +1599,16 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="n">
-        <v>1.80626795255336</v>
+        <v>1.80626795255316</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00000170908855003598</v>
+        <v>0.00000170908854608154</v>
       </c>
       <c r="E21" t="n">
         <v>1.27857939436233</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0219742498140426</v>
+        <v>0.0219742498116315</v>
       </c>
     </row>
     <row r="22">
@@ -1619,16 +1619,16 @@
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.72766731926086</v>
+        <v>-1.72766731926101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0000754060351102917</v>
+        <v>0.0000754060349869526</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.99090319700589</v>
+        <v>-1.99090319700602</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0000722539636579169</v>
+        <v>0.0000722539636382206</v>
       </c>
     </row>
     <row r="23">
@@ -1639,16 +1639,16 @@
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>0.926512129369602</v>
+        <v>0.926512129369656</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0000210527002122811</v>
+        <v>0.0000210527000776963</v>
       </c>
       <c r="E23" t="n">
-        <v>0.928614781394674</v>
+        <v>0.928614781394677</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00141928808461936</v>
+        <v>0.00141928808452233</v>
       </c>
     </row>
     <row r="24">
@@ -1659,16 +1659,16 @@
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>2.94825769287647</v>
+        <v>2.94825769287597</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00000000000000000000000000000969051899852065</v>
+        <v>0.00000000000000000000000000000969051883423278</v>
       </c>
       <c r="E24" t="n">
-        <v>3.33319928385235</v>
+        <v>3.33319928385232</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0000000000000000000000000000000000000178937768856462</v>
+        <v>0.0000000000000000000000000000000000000178937768610337</v>
       </c>
     </row>
     <row r="25">
@@ -1679,16 +1679,16 @@
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>2.38800073651726</v>
+        <v>2.38800073651724</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00310309636227254</v>
+        <v>0.003103096354008</v>
       </c>
       <c r="E25" t="n">
-        <v>2.75238000228386</v>
+        <v>2.75238000228385</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0000723188094815436</v>
+        <v>0.0000723188094409801</v>
       </c>
     </row>
     <row r="26">
@@ -1699,16 +1699,16 @@
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.748039305832039</v>
+        <v>-0.748039305831983</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00899092631673528</v>
+        <v>0.00899092629351382</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.0202639613783</v>
+        <v>-1.02026396137826</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00791254929110591</v>
+        <v>0.00791254929018635</v>
       </c>
     </row>
     <row r="27">
@@ -1722,13 +1722,13 @@
         <v>3.28919560055945</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0303627456609386</v>
+        <v>0.0303627456607008</v>
       </c>
       <c r="E27" t="n">
-        <v>3.54205474565734</v>
+        <v>3.54205474565729</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0152283099229637</v>
+        <v>0.0152283099193859</v>
       </c>
     </row>
     <row r="28">
@@ -1739,16 +1739,16 @@
         <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>0.665471431834356</v>
+        <v>0.665471431834361</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0414365488773583</v>
+        <v>0.0414365487939978</v>
       </c>
       <c r="E28" t="n">
-        <v>0.804876880638914</v>
+        <v>0.804876880638913</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0320102648657979</v>
+        <v>0.0320102648636007</v>
       </c>
     </row>
     <row r="29">
@@ -1759,16 +1759,16 @@
         <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>1.87765503327435</v>
+        <v>1.87765503327449</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00010406222759386</v>
+        <v>0.000104062227487724</v>
       </c>
       <c r="E29" t="n">
-        <v>2.08473197384828</v>
+        <v>2.08473197384834</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00000268587563064958</v>
+        <v>0.00000268587563049112</v>
       </c>
     </row>
     <row r="30">
@@ -1779,16 +1779,16 @@
         <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>1.51906106975502</v>
+        <v>1.51906106975509</v>
       </c>
       <c r="D30" t="n">
-        <v>0.00000000000319358200871363</v>
+        <v>0.00000000000319358196717825</v>
       </c>
       <c r="E30" t="n">
-        <v>1.42225151682079</v>
+        <v>1.42225151682078</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00000143993974270499</v>
+        <v>0.00000143993974269608</v>
       </c>
     </row>
     <row r="31">
@@ -1799,16 +1799,16 @@
         <v>63</v>
       </c>
       <c r="C31" t="n">
-        <v>1.2106415339382</v>
+        <v>1.21064153393831</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000690559331752348</v>
+        <v>0.000690559330269633</v>
       </c>
       <c r="E31" t="n">
-        <v>1.2313105437596</v>
+        <v>1.23131054375961</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00399564017528186</v>
+        <v>0.00399564017470349</v>
       </c>
     </row>
     <row r="32">
@@ -1819,16 +1819,16 @@
         <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>1.66837276169963</v>
+        <v>1.66837276169955</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00000896264696149883</v>
+        <v>0.00000896264696172489</v>
       </c>
       <c r="E32" t="n">
-        <v>1.82371514351874</v>
+        <v>1.82371514351871</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00000211042518582406</v>
+        <v>0.00000211042518508703</v>
       </c>
     </row>
     <row r="33">
@@ -1837,16 +1837,16 @@
       </c>
       <c r="B33"/>
       <c r="C33" t="n">
-        <v>-6.97080418645021</v>
+        <v>-6.9708041864502</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000441842317520335</v>
+        <v>0.000441842317532829</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.60292039113007</v>
+        <v>-4.60292039112702</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0090086032516297</v>
+        <v>0.00900860324893603</v>
       </c>
     </row>
     <row r="34">
@@ -1857,16 +1857,16 @@
         <v>68</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.04234229728539</v>
+        <v>-2.04234229728567</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00000000000000559139931498964</v>
+        <v>0.00000000000000559139926456647</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.49606370031129</v>
+        <v>-1.49606370031134</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00000484605877053329</v>
+        <v>0.00000484605876929985</v>
       </c>
     </row>
     <row r="35">
@@ -1877,16 +1877,16 @@
         <v>70</v>
       </c>
       <c r="C35" t="n">
-        <v>1.62937478493242</v>
+        <v>1.62937478493247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00103807669091159</v>
+        <v>0.00103807668994737</v>
       </c>
       <c r="E35" t="n">
-        <v>1.24056516139862</v>
+        <v>1.24056516139873</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0416359709796243</v>
+        <v>0.0416359709704788</v>
       </c>
     </row>
     <row r="36">
@@ -1897,16 +1897,16 @@
         <v>72</v>
       </c>
       <c r="C36" t="n">
-        <v>0.964957965702457</v>
+        <v>0.964957965702439</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0000672836793423646</v>
+        <v>0.000067283679019798</v>
       </c>
       <c r="E36" t="n">
         <v>1.10989834805526</v>
       </c>
       <c r="F36" t="n">
-        <v>0.000214566500735572</v>
+        <v>0.000214566500704449</v>
       </c>
     </row>
     <row r="37">
@@ -1917,16 +1917,16 @@
         <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>0.754947599209961</v>
+        <v>0.754947599210019</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0271614458820956</v>
+        <v>0.0271614458544132</v>
       </c>
       <c r="E37" t="n">
-        <v>0.831928171943612</v>
+        <v>0.831928171943614</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0275314303378439</v>
+        <v>0.0275314303309311</v>
       </c>
     </row>
     <row r="38">
@@ -1937,16 +1937,16 @@
         <v>76</v>
       </c>
       <c r="C38" t="n">
-        <v>1.76340566144609</v>
+        <v>1.76340566144637</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00000000000233349466174912</v>
+        <v>0.00000000000233349464332999</v>
       </c>
       <c r="E38" t="n">
-        <v>1.55368470606744</v>
+        <v>1.55368470606748</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000277034771439728</v>
+        <v>0.000277034771380133</v>
       </c>
     </row>
     <row r="39">
@@ -1957,16 +1957,16 @@
         <v>78</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.57386661497107</v>
+        <v>-1.573866614971</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0429905008595594</v>
+        <v>0.0429905008501387</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.96982209982876</v>
+        <v>-1.96982209982853</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0160776162944452</v>
+        <v>0.0160776162899848</v>
       </c>
     </row>
     <row r="40">
@@ -1977,16 +1977,16 @@
         <v>80</v>
       </c>
       <c r="C40" t="n">
-        <v>2.00171821112898</v>
+        <v>2.00171821112914</v>
       </c>
       <c r="D40" t="n">
-        <v>0.000000000000000000000000132384588388485</v>
+        <v>0.00000000000000000000000013238458509309</v>
       </c>
       <c r="E40" t="n">
-        <v>2.54862821245788</v>
+        <v>2.54862821245789</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00000000000000000000468723678310958</v>
+        <v>0.00000000000000000000468723678149138</v>
       </c>
     </row>
     <row r="41">
@@ -1995,16 +1995,16 @@
       </c>
       <c r="B41"/>
       <c r="C41" t="n">
-        <v>4.94398717967208</v>
+        <v>4.94398717967191</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00486767240476504</v>
+        <v>0.00486767240506081</v>
       </c>
       <c r="E41" t="n">
-        <v>5.75585227040953</v>
+        <v>5.75585227041041</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0000373789894074475</v>
+        <v>0.0000373789893922186</v>
       </c>
     </row>
     <row r="42">
@@ -2015,16 +2015,16 @@
         <v>83</v>
       </c>
       <c r="C42" t="n">
-        <v>1.36709065476884</v>
+        <v>1.36709065476874</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00216518284654223</v>
+        <v>0.00216518284413879</v>
       </c>
       <c r="E42" t="n">
-        <v>2.06968224798034</v>
+        <v>2.06968224798028</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0000040519972408162</v>
+        <v>0.00000405199723947077</v>
       </c>
     </row>
     <row r="43">
@@ -2035,16 +2035,16 @@
         <v>85</v>
       </c>
       <c r="C43" t="n">
-        <v>0.973171407153338</v>
+        <v>0.973171407153366</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0000000283826278036157</v>
+        <v>0.0000000283826274492515</v>
       </c>
       <c r="E43" t="n">
         <v>1.14401732110383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0000149351374335924</v>
+        <v>0.0000149351374327643</v>
       </c>
     </row>
     <row r="44">
@@ -2055,16 +2055,16 @@
         <v>87</v>
       </c>
       <c r="C44" t="n">
-        <v>1.5301080089932</v>
+        <v>1.5301080089934</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0000000482951482093532</v>
+        <v>0.0000000482951479772848</v>
       </c>
       <c r="E44" t="n">
-        <v>1.30011807152044</v>
+        <v>1.30011807152046</v>
       </c>
       <c r="F44" t="n">
-        <v>0.000184861202642754</v>
+        <v>0.00018486120258767</v>
       </c>
     </row>
     <row r="45">
@@ -2075,16 +2075,16 @@
         <v>89</v>
       </c>
       <c r="C45" t="n">
-        <v>2.68068551717371</v>
+        <v>2.68068551717351</v>
       </c>
       <c r="D45" t="n">
-        <v>0.000031264892142198</v>
+        <v>0.0000312648921268823</v>
       </c>
       <c r="E45" t="n">
-        <v>2.53847002348311</v>
+        <v>2.53847002348297</v>
       </c>
       <c r="F45" t="n">
-        <v>0.000435978295080676</v>
+        <v>0.000435978294888771</v>
       </c>
     </row>
     <row r="46">
@@ -2095,16 +2095,16 @@
         <v>91</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.8906883746027</v>
+        <v>-3.89068837460214</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000000000000000000000690044467496145</v>
+        <v>0.000000000000000000000690044463589873</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.37726484069248</v>
+        <v>-1.37726484069263</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00330151599250503</v>
+        <v>0.00330151599169614</v>
       </c>
     </row>
     <row r="47">
@@ -2115,16 +2115,16 @@
         <v>93</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.696540384991837</v>
+        <v>-0.696540384991865</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0153599538257519</v>
+        <v>0.0153599537840675</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.719993917468758</v>
+        <v>-0.719993917468753</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0440083994551934</v>
+        <v>0.0440083994529984</v>
       </c>
     </row>
     <row r="48">
@@ -2135,16 +2135,16 @@
         <v>95</v>
       </c>
       <c r="C48" t="n">
-        <v>-6.44990330660102</v>
+        <v>-6.4499033066015</v>
       </c>
       <c r="D48" t="n">
-        <v>0.000000000031516420916302</v>
+        <v>0.0000000000315164209006404</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.79699917866653</v>
+        <v>-2.79699917866567</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0132208683078708</v>
+        <v>0.0132208683045671</v>
       </c>
     </row>
     <row r="49">
@@ -2155,16 +2155,16 @@
         <v>97</v>
       </c>
       <c r="C49" t="n">
-        <v>-4.57472491115514</v>
+        <v>-4.57472491115539</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000000000000000301665935478259</v>
+        <v>0.000000000000000301665935009133</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.88955835501195</v>
+        <v>-2.88955835501147</v>
       </c>
       <c r="F49" t="n">
-        <v>0.000000220561320749982</v>
+        <v>0.000000220561320589803</v>
       </c>
     </row>
     <row r="50">
@@ -2175,16 +2175,16 @@
         <v>99</v>
       </c>
       <c r="C50" t="n">
-        <v>3.11380048592387</v>
+        <v>3.11380048592407</v>
       </c>
       <c r="D50" t="n">
-        <v>0.000000338446381052856</v>
+        <v>0.00000033844638072971</v>
       </c>
       <c r="E50" t="n">
-        <v>3.4374344432226</v>
+        <v>3.43743444322277</v>
       </c>
       <c r="F50" t="n">
-        <v>0.000000000722431958253346</v>
+        <v>0.000000000722431957712255</v>
       </c>
     </row>
     <row r="51">
@@ -2195,16 +2195,16 @@
         <v>101</v>
       </c>
       <c r="C51" t="n">
-        <v>1.97315089704998</v>
+        <v>1.97315089704994</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0027857773997164</v>
+        <v>0.00278577739914995</v>
       </c>
       <c r="E51" t="n">
-        <v>2.47086431703671</v>
+        <v>2.47086431703661</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0000014887662336665</v>
+        <v>0.00000148876623264483</v>
       </c>
     </row>
     <row r="52">
@@ -2213,16 +2213,16 @@
       </c>
       <c r="B52"/>
       <c r="C52" t="n">
-        <v>1.06766105290093</v>
+        <v>1.06766105290096</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00000000337926305167022</v>
+        <v>0.00000000337926300902453</v>
       </c>
       <c r="E52" t="n">
         <v>1.11740319625187</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00000958057634791959</v>
+        <v>0.00000958057634707248</v>
       </c>
     </row>
     <row r="53">
@@ -2233,16 +2233,16 @@
         <v>104</v>
       </c>
       <c r="C53" t="n">
-        <v>1.61725453456076</v>
+        <v>1.61725453456082</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0021380318731748</v>
+        <v>0.0021380318712842</v>
       </c>
       <c r="E53" t="n">
-        <v>1.9663057426459</v>
+        <v>1.96630574264595</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00000375997206209312</v>
+        <v>0.0000037599720594141</v>
       </c>
     </row>
     <row r="54">
@@ -2251,16 +2251,16 @@
       </c>
       <c r="B54"/>
       <c r="C54" t="n">
-        <v>1.07412218630216</v>
+        <v>1.07412218630215</v>
       </c>
       <c r="D54" t="n">
-        <v>0.00714606367871616</v>
+        <v>0.00714606366995115</v>
       </c>
       <c r="E54" t="n">
-        <v>1.35921588079874</v>
+        <v>1.3592158807987</v>
       </c>
       <c r="F54" t="n">
-        <v>0.000290708615068576</v>
+        <v>0.00029070861496356</v>
       </c>
     </row>
     <row r="55">
@@ -2271,16 +2271,16 @@
         <v>107</v>
       </c>
       <c r="C55" t="n">
-        <v>0.890588049877217</v>
+        <v>0.890588049877223</v>
       </c>
       <c r="D55" t="n">
-        <v>0.00189226367598811</v>
+        <v>0.00189226367059722</v>
       </c>
       <c r="E55" t="n">
-        <v>0.97457930316293</v>
+        <v>0.974579303162945</v>
       </c>
       <c r="F55" t="n">
-        <v>0.00676877788033583</v>
+        <v>0.00676877787941607</v>
       </c>
     </row>
     <row r="56">
@@ -2289,16 +2289,16 @@
       </c>
       <c r="B56"/>
       <c r="C56" t="n">
-        <v>-1.24763823228428</v>
+        <v>-1.24763823228435</v>
       </c>
       <c r="D56" t="n">
-        <v>0.00000515924041764587</v>
+        <v>0.00000515924039721061</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.28734905677178</v>
+        <v>-1.28734905677188</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00170227926939714</v>
+        <v>0.00170227926905465</v>
       </c>
     </row>
     <row r="57">
@@ -2309,16 +2309,16 @@
         <v>110</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.713999525800506</v>
+        <v>-0.713999525800279</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0202843298733383</v>
+        <v>0.0202843298288288</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.834275989754698</v>
+        <v>-0.834275989754677</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0300791530001954</v>
+        <v>0.0300791529971883</v>
       </c>
     </row>
     <row r="58">
@@ -2329,16 +2329,16 @@
         <v>112</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.20353020279642</v>
+        <v>-2.2035302027964</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00000000012185509809822</v>
+        <v>0.000000000121855097647146</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.14482070343894</v>
+        <v>-2.14482070343879</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00000188037481041051</v>
+        <v>0.00000188037480964068</v>
       </c>
     </row>
     <row r="59">
@@ -2349,16 +2349,16 @@
         <v>114</v>
       </c>
       <c r="C59" t="n">
-        <v>1.25199977895504</v>
+        <v>1.25199977895496</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00000467930758718555</v>
+        <v>0.00000467930756826966</v>
       </c>
       <c r="E59" t="n">
-        <v>1.34655367218552</v>
+        <v>1.34655367218555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00118613498582564</v>
+        <v>0.00118613498560467</v>
       </c>
     </row>
     <row r="60">
@@ -2369,16 +2369,16 @@
         <v>116</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.530913818388</v>
+        <v>-4.53091381838816</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00477495009288326</v>
+        <v>0.0047749500930537</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.09691890547189</v>
+        <v>-4.09691890547052</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0320102648657979</v>
+        <v>0.0320102648636007</v>
       </c>
     </row>
     <row r="61">
@@ -2389,16 +2389,16 @@
         <v>118</v>
       </c>
       <c r="C61" t="n">
-        <v>2.56358781716721</v>
+        <v>2.56358781716702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.00000000000000000224162214545732</v>
+        <v>0.00000000000000000224162212806872</v>
       </c>
       <c r="E61" t="n">
-        <v>3.34730288067301</v>
+        <v>3.34730288067298</v>
       </c>
       <c r="F61" t="n">
-        <v>0.000000000000000107333969998725</v>
+        <v>0.000000000000000107333969941355</v>
       </c>
     </row>
     <row r="62">
@@ -2409,16 +2409,16 @@
         <v>120</v>
       </c>
       <c r="C62" t="n">
-        <v>1.94529386566204</v>
+        <v>1.945293865662</v>
       </c>
       <c r="D62" t="n">
-        <v>0.000584281473693911</v>
+        <v>0.000584281473294048</v>
       </c>
       <c r="E62" t="n">
-        <v>2.27679586442868</v>
+        <v>2.27679586442867</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0000000883729583443214</v>
+        <v>0.0000000883729582771028</v>
       </c>
     </row>
     <row r="63">
@@ -2429,16 +2429,16 @@
         <v>122</v>
       </c>
       <c r="C63" t="n">
-        <v>2.30740945716347</v>
+        <v>2.30740945716331</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0027857773997164</v>
+        <v>0.00278577739914995</v>
       </c>
       <c r="E63" t="n">
-        <v>2.60478746014264</v>
+        <v>2.60478746014242</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00110949112385557</v>
+        <v>0.00110949112354962</v>
       </c>
     </row>
     <row r="64">
@@ -2449,16 +2449,16 @@
         <v>124</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.655705425891768</v>
+        <v>-0.655705425891648</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0322983375073812</v>
+        <v>0.032298337434535</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.776003704209717</v>
+        <v>-0.776003704209702</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0434829865205822</v>
+        <v>0.0434829865175661</v>
       </c>
     </row>
     <row r="65">
@@ -2467,16 +2467,16 @@
       </c>
       <c r="B65"/>
       <c r="C65" t="n">
-        <v>1.06545689152962</v>
+        <v>1.06545689152942</v>
       </c>
       <c r="D65" t="n">
-        <v>0.000069738260163203</v>
+        <v>0.0000697382597766452</v>
       </c>
       <c r="E65" t="n">
-        <v>1.00748578412035</v>
+        <v>1.00748578412034</v>
       </c>
       <c r="F65" t="n">
-        <v>0.000955265940503449</v>
+        <v>0.000955265940349665</v>
       </c>
     </row>
     <row r="66">
@@ -2487,16 +2487,16 @@
         <v>127</v>
       </c>
       <c r="C66" t="n">
-        <v>1.38583140911243</v>
+        <v>1.38583140911246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0000186619453372992</v>
+        <v>0.0000186619452886356</v>
       </c>
       <c r="E66" t="n">
-        <v>2.20258788167664</v>
+        <v>2.20258788167667</v>
       </c>
       <c r="F66" t="n">
-        <v>0.000000000000319158961515249</v>
+        <v>0.000000000000319158961286163</v>
       </c>
     </row>
     <row r="67">
@@ -2507,16 +2507,16 @@
         <v>129</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.742686227062703</v>
+        <v>-0.7426862270626</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0462967604169175</v>
+        <v>0.0462967603871732</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.69333321195871</v>
+        <v>-1.69333321195872</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0000406564371853644</v>
+        <v>0.0000406564371755945</v>
       </c>
     </row>
     <row r="68">
@@ -2527,16 +2527,16 @@
         <v>131</v>
       </c>
       <c r="C68" t="n">
-        <v>-2.32844571450639</v>
+        <v>-2.32844571450647</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0183863862885124</v>
+        <v>0.0183863862861198</v>
       </c>
       <c r="E68" t="n">
-        <v>-3.33983905095129</v>
+        <v>-3.3398390509497</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00102754196198229</v>
+        <v>0.00102754196153207</v>
       </c>
     </row>
     <row r="69">
@@ -2547,16 +2547,16 @@
         <v>133</v>
       </c>
       <c r="C69" t="n">
-        <v>2.16835267192693</v>
+        <v>2.1683526719269</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0027857773997164</v>
+        <v>0.00278577739914995</v>
       </c>
       <c r="E69" t="n">
-        <v>2.67260245848903</v>
+        <v>2.67260245848899</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00000375997206209312</v>
+        <v>0.0000037599720594141</v>
       </c>
     </row>
     <row r="70">
@@ -2567,16 +2567,16 @@
         <v>135</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.22020735651635</v>
+        <v>-5.22020735651629</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0000000366404506617196</v>
+        <v>0.0000000366404506533601</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.41393992839312</v>
+        <v>-3.41393992839347</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0000373789894074475</v>
+        <v>0.0000373789893922186</v>
       </c>
     </row>
     <row r="71">
@@ -2585,16 +2585,16 @@
       </c>
       <c r="B71"/>
       <c r="C71" t="n">
-        <v>-0.976764415453629</v>
+        <v>-0.97676441545352</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00898830144831184</v>
+        <v>0.00898830143531613</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.6615968118902</v>
+        <v>-1.66159681189012</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00000434442365432876</v>
+        <v>0.00000434442365227869</v>
       </c>
     </row>
     <row r="72">
@@ -2605,16 +2605,16 @@
         <v>138</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.33748855069331</v>
+        <v>-2.33748855069324</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00000487782927934771</v>
+        <v>0.00000487782927375435</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.12572632798562</v>
+        <v>-2.1257263279857</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00000239101389902006</v>
+        <v>0.00000239101389745097</v>
       </c>
     </row>
     <row r="73">
@@ -2625,16 +2625,16 @@
         <v>140</v>
       </c>
       <c r="C73" t="n">
-        <v>1.77505586336198</v>
+        <v>1.7750558633618</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0475549298157025</v>
+        <v>0.0475549298045186</v>
       </c>
       <c r="E73" t="n">
-        <v>2.16954032468745</v>
+        <v>2.16954032468738</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00581393057127979</v>
+        <v>0.00581393057000321</v>
       </c>
     </row>
     <row r="74">
@@ -2645,16 +2645,16 @@
         <v>142</v>
       </c>
       <c r="C74" t="n">
-        <v>2.36406260303253</v>
+        <v>2.36406260303249</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00147167938075989</v>
+        <v>0.00147167938019656</v>
       </c>
       <c r="E74" t="n">
-        <v>2.41626857589495</v>
+        <v>2.41626857589501</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00499550716499387</v>
+        <v>0.00499550716376258</v>
       </c>
     </row>
     <row r="75">
@@ -2665,16 +2665,16 @@
         <v>144</v>
       </c>
       <c r="C75" t="n">
-        <v>-5.20426807073298</v>
+        <v>-5.20426807073288</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0000000000219109459156882</v>
+        <v>0.0000000000219109459038755</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.50378780381433</v>
+        <v>-8.50378780381431</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0000000406666049520898</v>
+        <v>0.0000000406666049438782</v>
       </c>
     </row>
     <row r="76">
@@ -2685,16 +2685,16 @@
         <v>146</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.32579062391481</v>
+        <v>-1.32579062391474</v>
       </c>
       <c r="D76" t="n">
-        <v>0.000173458017150293</v>
+        <v>0.000173458016780047</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.04320769493261</v>
+        <v>-1.04320769493269</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0240522492429139</v>
+        <v>0.0240522492390723</v>
       </c>
     </row>
     <row r="77">
@@ -2705,16 +2705,16 @@
         <v>148</v>
       </c>
       <c r="C77" t="n">
-        <v>1.03468184670826</v>
+        <v>1.03468184670831</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0000154489795258686</v>
+        <v>0.0000154489794471861</v>
       </c>
       <c r="E77" t="n">
-        <v>0.847698166729183</v>
+        <v>0.847698166729193</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0116196839330007</v>
+        <v>0.0116196839307088</v>
       </c>
     </row>
     <row r="78">
@@ -2725,16 +2725,16 @@
         <v>150</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.20714063620616</v>
+        <v>-1.20714063620599</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00146099074348004</v>
+        <v>0.00146099074093306</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.28923855670257</v>
+        <v>-1.28923855670258</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0034172354127907</v>
+        <v>0.00341723541215768</v>
       </c>
     </row>
     <row r="79">
@@ -2745,16 +2745,16 @@
         <v>152</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.38444844797126</v>
+        <v>-1.38444844797123</v>
       </c>
       <c r="D79" t="n">
-        <v>0.000000215251924527474</v>
+        <v>0.000000215251923634397</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.2467958161723</v>
+        <v>-1.24679581617228</v>
       </c>
       <c r="F79" t="n">
-        <v>0.000421246626877749</v>
+        <v>0.000421246626820858</v>
       </c>
     </row>
     <row r="80">
@@ -2765,16 +2765,16 @@
         <v>154</v>
       </c>
       <c r="C80" t="n">
-        <v>1.19503691524781</v>
+        <v>1.19503691524763</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0044651998945151</v>
+        <v>0.00446519989198414</v>
       </c>
       <c r="E80" t="n">
-        <v>1.40524798256921</v>
+        <v>1.4052479825692</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00100489540541964</v>
+        <v>0.00100489540524514</v>
       </c>
     </row>
     <row r="81">
@@ -2785,16 +2785,16 @@
         <v>156</v>
       </c>
       <c r="C81" t="n">
-        <v>1.75479138995897</v>
+        <v>1.75479138995882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.024272827780457</v>
+        <v>0.024272827763909</v>
       </c>
       <c r="E81" t="n">
-        <v>2.43871140602678</v>
+        <v>2.43871140602666</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0000298474528295745</v>
+        <v>0.0000298474528179919</v>
       </c>
     </row>
     <row r="82">
@@ -2805,16 +2805,16 @@
         <v>158</v>
       </c>
       <c r="C82" t="n">
-        <v>3.687778285694</v>
+        <v>3.68777828569397</v>
       </c>
       <c r="D82" t="n">
-        <v>0.000000000000000000000000047929254218941</v>
+        <v>0.0000000000000000000000000479292538627573</v>
       </c>
       <c r="E82" t="n">
-        <v>4.20061384973372</v>
+        <v>4.20061384973375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.000000000000000000000000000415230884829417</v>
+        <v>0.000000000000000000000000000415230884235469</v>
       </c>
     </row>
     <row r="83">
@@ -2825,16 +2825,16 @@
         <v>160</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.42898759954465</v>
+        <v>-1.42898759954476</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0106462730428566</v>
+        <v>0.0106462730373377</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.77801679894341</v>
+        <v>-1.77801679894302</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0255696541282572</v>
+        <v>0.0255696541227117</v>
       </c>
     </row>
     <row r="84">
@@ -2845,16 +2845,16 @@
         <v>162</v>
       </c>
       <c r="C84" t="n">
-        <v>1.06347630945337</v>
+        <v>1.0634763094535</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0000447299177913824</v>
+        <v>0.0000447299176123483</v>
       </c>
       <c r="E84" t="n">
-        <v>0.876942291759427</v>
+        <v>0.876942291759451</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0279077323548833</v>
+        <v>0.0279077323542123</v>
       </c>
     </row>
     <row r="85">
@@ -2863,16 +2863,16 @@
       </c>
       <c r="B85"/>
       <c r="C85" t="n">
-        <v>-1.15274374860793</v>
+        <v>-1.15274374860809</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00565228788485917</v>
+        <v>0.00565228787831417</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.1581057142109</v>
+        <v>-1.15810571421095</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0113453966183181</v>
+        <v>0.0113453966156506</v>
       </c>
     </row>
     <row r="86">
@@ -2883,16 +2883,16 @@
         <v>165</v>
       </c>
       <c r="C86" t="n">
-        <v>0.718713126784379</v>
+        <v>0.71871312678435</v>
       </c>
       <c r="D86" t="n">
-        <v>0.00232000402587852</v>
+        <v>0.0023200040154938</v>
       </c>
       <c r="E86" t="n">
-        <v>0.936236321038266</v>
+        <v>0.936236321038264</v>
       </c>
       <c r="F86" t="n">
-        <v>0.000173203749192513</v>
+        <v>0.000173203749188647</v>
       </c>
     </row>
     <row r="87">
@@ -2903,16 +2903,16 @@
         <v>167</v>
       </c>
       <c r="C87" t="n">
-        <v>1.94925550553472</v>
+        <v>1.94925550553469</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00803867550965818</v>
+        <v>0.00803867550792367</v>
       </c>
       <c r="E87" t="n">
-        <v>1.90583428804207</v>
+        <v>1.90583428804183</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0355558954756714</v>
+        <v>0.0355558954668813</v>
       </c>
     </row>
     <row r="88">
@@ -2923,16 +2923,16 @@
         <v>169</v>
       </c>
       <c r="C88" t="n">
-        <v>1.91513300618644</v>
+        <v>1.91513300618621</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00165917120985377</v>
+        <v>0.00165917120835074</v>
       </c>
       <c r="E88" t="n">
-        <v>1.74493141902509</v>
+        <v>1.74493141902501</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0167739461911071</v>
+        <v>0.0167739461875171</v>
       </c>
     </row>
     <row r="89">
@@ -2943,16 +2943,16 @@
         <v>171</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.94322268158493</v>
+        <v>-1.94322268158488</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0044819646272129</v>
+        <v>0.00448196462591297</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.73428257430268</v>
+        <v>-1.73428257430305</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0318588332356717</v>
+        <v>0.0318588332274466</v>
       </c>
     </row>
     <row r="90">
@@ -2963,16 +2963,16 @@
         <v>173</v>
       </c>
       <c r="C90" t="n">
-        <v>3.43708700638771</v>
+        <v>3.43708700638776</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00232123456846209</v>
+        <v>0.00232123456835963</v>
       </c>
       <c r="E90" t="n">
-        <v>3.6464220757397</v>
+        <v>3.64642207574</v>
       </c>
       <c r="F90" t="n">
-        <v>0.000234015227631181</v>
+        <v>0.000234015227519669</v>
       </c>
     </row>
     <row r="91">
@@ -2983,16 +2983,16 @@
         <v>175</v>
       </c>
       <c r="C91" t="n">
-        <v>1.5017571366502</v>
+        <v>1.50175713664993</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000114732831898781</v>
+        <v>0.000114732831691982</v>
       </c>
       <c r="E91" t="n">
-        <v>2.13674451387719</v>
+        <v>2.13674451387718</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0000000593411259833972</v>
+        <v>0.0000000593411259561393</v>
       </c>
     </row>
     <row r="92">
@@ -3003,16 +3003,16 @@
         <v>177</v>
       </c>
       <c r="C92" t="n">
-        <v>1.4033067960367</v>
+        <v>1.40330679603664</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0322983375073812</v>
+        <v>0.032298337434535</v>
       </c>
       <c r="E92" t="n">
-        <v>1.45418903529001</v>
+        <v>1.45418903529004</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0416359709796243</v>
+        <v>0.0416359709704788</v>
       </c>
     </row>
     <row r="93">
@@ -3023,16 +3023,16 @@
         <v>179</v>
       </c>
       <c r="C93" t="n">
-        <v>6.85060043317065</v>
+        <v>6.85060043317066</v>
       </c>
       <c r="D93" t="n">
-        <v>0.00019269046223316</v>
+        <v>0.000192690462231964</v>
       </c>
       <c r="E93" t="n">
-        <v>6.64278855797957</v>
+        <v>6.64278855797994</v>
       </c>
       <c r="F93" t="n">
-        <v>0.000231173510292434</v>
+        <v>0.000231173510232244</v>
       </c>
     </row>
     <row r="94">
@@ -3043,16 +3043,16 @@
         <v>181</v>
       </c>
       <c r="C94" t="n">
-        <v>-4.54729350295737</v>
+        <v>-4.54729350295726</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00666108987483065</v>
+        <v>0.00666108987501021</v>
       </c>
       <c r="E94" t="n">
-        <v>-3.74024610384223</v>
+        <v>-3.74024610383989</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0275314303378439</v>
+        <v>0.0275314303309311</v>
       </c>
     </row>
     <row r="95">
@@ -3063,16 +3063,16 @@
         <v>183</v>
       </c>
       <c r="C95" t="n">
-        <v>0.729692493768584</v>
+        <v>0.729692493768536</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0171371767197881</v>
+        <v>0.0171371766775046</v>
       </c>
       <c r="E95" t="n">
-        <v>0.868348372421086</v>
+        <v>0.868348372421091</v>
       </c>
       <c r="F95" t="n">
-        <v>0.00152692561964254</v>
+        <v>0.00152692561950429</v>
       </c>
     </row>
     <row r="96">
@@ -3083,16 +3083,16 @@
         <v>185</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.71845643550444</v>
+        <v>-3.71845643550398</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000172139617206185</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000172139607313502</v>
       </c>
       <c r="E96" t="n">
         <v>-2.83733195564668</v>
       </c>
       <c r="F96" t="n">
-        <v>0.00000000000000000000000000000556207640655799</v>
+        <v>0.0000000000000000000000000000055620764056801</v>
       </c>
     </row>
     <row r="97">
@@ -3103,16 +3103,16 @@
         <v>187</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.09363549321768</v>
+        <v>-1.09363549321766</v>
       </c>
       <c r="D97" t="n">
-        <v>0.000000525320236843548</v>
+        <v>0.000000525320232417637</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.803754397689688</v>
+        <v>-0.803754397689689</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0413028218613005</v>
+        <v>0.0413028218614547</v>
       </c>
     </row>
     <row r="98">
@@ -3123,16 +3123,16 @@
         <v>189</v>
       </c>
       <c r="C98" t="n">
-        <v>1.56645661707117</v>
+        <v>1.56645661707137</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000137367905059328</v>
+        <v>0.000137367904817757</v>
       </c>
       <c r="E98" t="n">
-        <v>1.76106511477047</v>
+        <v>1.76106511477051</v>
       </c>
       <c r="F98" t="n">
-        <v>0.000000172367864892117</v>
+        <v>0.000000172367864809422</v>
       </c>
     </row>
     <row r="99">
@@ -3143,16 +3143,16 @@
         <v>191</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.46595613133185</v>
+        <v>-2.46595613133198</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0126291196964365</v>
+        <v>0.0126291196935309</v>
       </c>
       <c r="E99" t="n">
-        <v>-2.83439353019154</v>
+        <v>-2.83439353019084</v>
       </c>
       <c r="F99" t="n">
-        <v>0.00224988518447441</v>
+        <v>0.0022498851837659</v>
       </c>
     </row>
     <row r="100">
@@ -3161,16 +3161,16 @@
       </c>
       <c r="B100"/>
       <c r="C100" t="n">
-        <v>-1.95734672585151</v>
+        <v>-1.95734672585141</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0089490566780948</v>
+        <v>0.00894905667556273</v>
       </c>
       <c r="E100" t="n">
-        <v>-2.35866586979121</v>
+        <v>-2.35866586979147</v>
       </c>
       <c r="F100" t="n">
-        <v>0.000231173510292434</v>
+        <v>0.000231173510232244</v>
       </c>
     </row>
     <row r="101">
@@ -3179,16 +3179,16 @@
       </c>
       <c r="B101"/>
       <c r="C101" t="n">
-        <v>1.09355165792507</v>
+        <v>1.09355165792518</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00000753644770157561</v>
+        <v>0.00000753644765973037</v>
       </c>
       <c r="E101" t="n">
-        <v>1.02778941992658</v>
+        <v>1.02778941992659</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00553066751730722</v>
+        <v>0.00553066751565865</v>
       </c>
     </row>
     <row r="102">
@@ -3199,16 +3199,16 @@
         <v>195</v>
       </c>
       <c r="C102" t="n">
-        <v>-3.37500332850528</v>
+        <v>-3.37500332850447</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0000000000705535099449452</v>
+        <v>0.0000000000705535097899859</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.76365875249471</v>
+        <v>-1.76365875249501</v>
       </c>
       <c r="F102" t="n">
-        <v>0.00136308415809864</v>
+        <v>0.00136308415774475</v>
       </c>
     </row>
     <row r="103">
@@ -3219,16 +3219,16 @@
         <v>197</v>
       </c>
       <c r="C103" t="n">
-        <v>2.23291990183052</v>
+        <v>2.23291990183056</v>
       </c>
       <c r="D103" t="n">
-        <v>0.000395152878089862</v>
+        <v>0.000395152877880497</v>
       </c>
       <c r="E103" t="n">
-        <v>2.47364366152827</v>
+        <v>2.47364366152825</v>
       </c>
       <c r="F103" t="n">
-        <v>0.000223869152101233</v>
+        <v>0.000223869152022596</v>
       </c>
     </row>
     <row r="104">
@@ -3239,16 +3239,16 @@
         <v>199</v>
       </c>
       <c r="C104" t="n">
-        <v>8.14861612590962</v>
+        <v>8.14861612590961</v>
       </c>
       <c r="D104" t="n">
-        <v>0.000133990638554708</v>
+        <v>0.000133990638559765</v>
       </c>
       <c r="E104" t="n">
-        <v>7.80707856464779</v>
+        <v>7.80707856464775</v>
       </c>
       <c r="F104" t="n">
-        <v>0.000212917976359592</v>
+        <v>0.000212917976291921</v>
       </c>
     </row>
     <row r="105">
@@ -3257,16 +3257,16 @@
       </c>
       <c r="B105"/>
       <c r="C105" t="n">
-        <v>1.96013346525968</v>
+        <v>1.96013346525975</v>
       </c>
       <c r="D105" t="n">
-        <v>0.000187335169103151</v>
+        <v>0.00018733516896078</v>
       </c>
       <c r="E105" t="n">
-        <v>2.73279015667619</v>
+        <v>2.73279015667624</v>
       </c>
       <c r="F105" t="n">
-        <v>0.000000000231109738372651</v>
+        <v>0.00000000023110973817812</v>
       </c>
     </row>
     <row r="106">
@@ -3277,16 +3277,16 @@
         <v>202</v>
       </c>
       <c r="C106" t="n">
-        <v>0.905497241816058</v>
+        <v>0.905497241815859</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0217281763485077</v>
+        <v>0.0217281763296414</v>
       </c>
       <c r="E106" t="n">
-        <v>1.01686450822415</v>
+        <v>1.01686450822413</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0286341592012556</v>
+        <v>0.0286341591990794</v>
       </c>
     </row>
     <row r="107">
@@ -3297,16 +3297,16 @@
         <v>204</v>
       </c>
       <c r="C107" t="n">
-        <v>1.66689208369029</v>
+        <v>1.66689208369025</v>
       </c>
       <c r="D107" t="n">
-        <v>0.00000115272108202777</v>
+        <v>0.00000115272107916274</v>
       </c>
       <c r="E107" t="n">
-        <v>1.70497584830446</v>
+        <v>1.70497584830439</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0000272381623143605</v>
+        <v>0.0000272381623018162</v>
       </c>
     </row>
     <row r="108">
@@ -3317,16 +3317,16 @@
         <v>206</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.808231417493542</v>
+        <v>-0.808231417493597</v>
       </c>
       <c r="D108" t="n">
-        <v>0.000739523501757592</v>
+        <v>0.000739523498382803</v>
       </c>
       <c r="E108" t="n">
         <v>-1.50559909701444</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0000000019368964509697</v>
+        <v>0.0000000019368964506169</v>
       </c>
     </row>
     <row r="109">
@@ -3337,16 +3337,16 @@
         <v>208</v>
       </c>
       <c r="C109" t="n">
-        <v>-1.1952779389824</v>
+        <v>-1.19527793898242</v>
       </c>
       <c r="D109" t="n">
-        <v>0.00832368739024889</v>
+        <v>0.00832368738195785</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.23852610573106</v>
+        <v>-2.23852610573075</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0000000659400085443513</v>
+        <v>0.0000000659400085065105</v>
       </c>
     </row>
     <row r="110">
@@ -3357,16 +3357,16 @@
         <v>210</v>
       </c>
       <c r="C110" t="n">
-        <v>2.43840322371475</v>
+        <v>2.438403223715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.000000000000000000000000000000000107517905109629</v>
+        <v>0.000000000000000000000000000000000107517901766671</v>
       </c>
       <c r="E110" t="n">
         <v>2.52551634794373</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00000000000000000144472062450443</v>
+        <v>0.00000000000000000144472062392341</v>
       </c>
     </row>
     <row r="111">
@@ -3377,16 +3377,16 @@
         <v>212</v>
       </c>
       <c r="C111" t="n">
-        <v>0.709754113167069</v>
+        <v>0.709754113167119</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0480686978486905</v>
+        <v>0.0480686977761553</v>
       </c>
       <c r="E111" t="n">
-        <v>1.21336550156527</v>
+        <v>1.21336550156526</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0000238194030919825</v>
+        <v>0.0000238194030844912</v>
       </c>
     </row>
     <row r="112">
@@ -3397,16 +3397,16 @@
         <v>214</v>
       </c>
       <c r="C112" t="n">
-        <v>-1.3039232860335</v>
+        <v>-1.30392328603338</v>
       </c>
       <c r="D112" t="n">
-        <v>0.000000043678990811962</v>
+        <v>0.0000000436789904821252</v>
       </c>
       <c r="E112" t="n">
-        <v>-2.09687520653674</v>
+        <v>-2.09687520653673</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0000000000896994671871644</v>
+        <v>0.0000000000896994671725628</v>
       </c>
     </row>
     <row r="113">
@@ -3420,13 +3420,13 @@
         <v>1.01465856950973</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00381216431945817</v>
+        <v>0.00381216431132275</v>
       </c>
       <c r="E113" t="n">
         <v>1.29498888750968</v>
       </c>
       <c r="F113" t="n">
-        <v>0.000118182460740617</v>
+        <v>0.000118182460723184</v>
       </c>
     </row>
     <row r="114">
@@ -3437,16 +3437,16 @@
         <v>218</v>
       </c>
       <c r="C114" t="n">
-        <v>1.90702143817317</v>
+        <v>1.90702143817324</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0308435694210633</v>
+        <v>0.0308435694152645</v>
       </c>
       <c r="E114" t="n">
-        <v>1.92074541178838</v>
+        <v>1.92074541178852</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0274207100278682</v>
+        <v>0.0274207100212288</v>
       </c>
     </row>
     <row r="115">
@@ -3455,16 +3455,16 @@
       </c>
       <c r="B115"/>
       <c r="C115" t="n">
-        <v>6.14288617522509</v>
+        <v>6.14288617522533</v>
       </c>
       <c r="D115" t="n">
-        <v>0.00311437922674837</v>
+        <v>0.00311437921189212</v>
       </c>
       <c r="E115" t="n">
-        <v>6.88676742578808</v>
+        <v>6.8867674257872</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0000373789894074475</v>
+        <v>0.0000373789893922186</v>
       </c>
     </row>
     <row r="116">
@@ -3475,16 +3475,16 @@
         <v>221</v>
       </c>
       <c r="C116" t="n">
-        <v>5.4609869533499</v>
+        <v>5.46098695334992</v>
       </c>
       <c r="D116" t="n">
-        <v>0.000441842317520335</v>
+        <v>0.000441842317532829</v>
       </c>
       <c r="E116" t="n">
-        <v>6.40083389325385</v>
+        <v>6.40083389325375</v>
       </c>
       <c r="F116" t="n">
-        <v>0.000000100336127026598</v>
+        <v>0.000000100336126979496</v>
       </c>
     </row>
     <row r="117">
@@ -3495,16 +3495,16 @@
         <v>223</v>
       </c>
       <c r="C117" t="n">
-        <v>0.642762120222705</v>
+        <v>0.64276212022266</v>
       </c>
       <c r="D117" t="n">
-        <v>0.00565125932982001</v>
+        <v>0.00565125930666838</v>
       </c>
       <c r="E117" t="n">
-        <v>0.850361146546255</v>
+        <v>0.850361146546247</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00773241969914286</v>
+        <v>0.00773241969884635</v>
       </c>
     </row>
     <row r="118">
@@ -3515,16 +3515,16 @@
         <v>225</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.934505687149611</v>
+        <v>-0.934505687149744</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0144472331078535</v>
+        <v>0.0144472330743125</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.07346174469345</v>
+        <v>-1.07346174469344</v>
       </c>
       <c r="F118" t="n">
-        <v>0.00772101863149456</v>
+        <v>0.00772101862987922</v>
       </c>
     </row>
     <row r="119">
@@ -3533,16 +3533,16 @@
       </c>
       <c r="B119"/>
       <c r="C119" t="n">
-        <v>1.04957361957384</v>
+        <v>1.04957361957371</v>
       </c>
       <c r="D119" t="n">
-        <v>0.000136973381796851</v>
+        <v>0.000136973381210467</v>
       </c>
       <c r="E119" t="n">
         <v>1.06148462463572</v>
       </c>
       <c r="F119" t="n">
-        <v>0.00304688629191054</v>
+        <v>0.00304688629179047</v>
       </c>
     </row>
     <row r="120">
@@ -3553,16 +3553,16 @@
         <v>228</v>
       </c>
       <c r="C120" t="n">
-        <v>3.41881214702155</v>
+        <v>3.41881214702148</v>
       </c>
       <c r="D120" t="n">
-        <v>0.000000000061571385383943</v>
+        <v>0.0000000000615713852706967</v>
       </c>
       <c r="E120" t="n">
-        <v>4.58487497633645</v>
+        <v>4.58487497633644</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0000000000000000000000000614130094667423</v>
+        <v>0.0000000000000000000000000614130093889324</v>
       </c>
     </row>
     <row r="121">
@@ -3576,13 +3576,13 @@
         <v>-8.81353788186957</v>
       </c>
       <c r="D121" t="n">
-        <v>0.00000010032633918729</v>
+        <v>0.000000100326339182336</v>
       </c>
       <c r="E121" t="n">
-        <v>-3.865771862773</v>
+        <v>-3.86577186277409</v>
       </c>
       <c r="F121" t="n">
-        <v>0.000255014578828248</v>
+        <v>0.000255014578722482</v>
       </c>
     </row>
     <row r="122">
@@ -3593,16 +3593,16 @@
         <v>232</v>
       </c>
       <c r="C122" t="n">
-        <v>1.92860562795559</v>
+        <v>1.92860562795553</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0103553128308809</v>
+        <v>0.0103553128149266</v>
       </c>
       <c r="E122" t="n">
-        <v>2.09360617986609</v>
+        <v>2.09360617986598</v>
       </c>
       <c r="F122" t="n">
-        <v>0.00318202620890984</v>
+        <v>0.0031820262079044</v>
       </c>
     </row>
     <row r="123">
@@ -3613,16 +3613,16 @@
         <v>234</v>
       </c>
       <c r="C123" t="n">
-        <v>0.995183154546538</v>
+        <v>0.995183154546526</v>
       </c>
       <c r="D123" t="n">
-        <v>0.000069738260163203</v>
+        <v>0.0000697382597766452</v>
       </c>
       <c r="E123" t="n">
-        <v>0.763318392632689</v>
+        <v>0.763318392632683</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0256154716047065</v>
+        <v>0.0256154716047106</v>
       </c>
     </row>
     <row r="124">
@@ -3633,16 +3633,16 @@
         <v>236</v>
       </c>
       <c r="C124" t="n">
-        <v>2.15772172958133</v>
+        <v>2.15772172958137</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0446785850656916</v>
+        <v>0.0446785850633747</v>
       </c>
       <c r="E124" t="n">
-        <v>2.81561073014316</v>
+        <v>2.81561073014337</v>
       </c>
       <c r="F124" t="n">
-        <v>0.00839246895509292</v>
+        <v>0.00839246895305226</v>
       </c>
     </row>
     <row r="125">
@@ -3653,16 +3653,16 @@
         <v>238</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.5288282811624</v>
+        <v>-1.52882828116213</v>
       </c>
       <c r="D125" t="n">
-        <v>0.000842595323550116</v>
+        <v>0.000842595322525966</v>
       </c>
       <c r="E125" t="n">
-        <v>-2.16893895975867</v>
+        <v>-2.16893895975853</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0000000915212850372868</v>
+        <v>0.0000000915212849787883</v>
       </c>
     </row>
     <row r="126">
@@ -3673,16 +3673,16 @@
         <v>240</v>
       </c>
       <c r="C126" t="n">
-        <v>3.15197988951146</v>
+        <v>3.15197988951129</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0000798993572431395</v>
+        <v>0.0000798993572243524</v>
       </c>
       <c r="E126" t="n">
-        <v>4.2202466750471</v>
+        <v>4.2202466750467</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0000000000000168049281009274</v>
+        <v>0.0000000000000168049280812539</v>
       </c>
     </row>
     <row r="127">
@@ -3693,16 +3693,16 @@
         <v>242</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.782807158680983</v>
+        <v>-0.782807158680928</v>
       </c>
       <c r="D127" t="n">
-        <v>0.000439252068093957</v>
+        <v>0.000439252065566068</v>
       </c>
       <c r="E127" t="n">
         <v>-1.34606380548588</v>
       </c>
       <c r="F127" t="n">
-        <v>0.00000013152711622542</v>
+        <v>0.000000131527116230124</v>
       </c>
     </row>
     <row r="128">
@@ -3713,16 +3713,16 @@
         <v>244</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.617206048000231</v>
+        <v>-0.617206048000207</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0187465256967219</v>
+        <v>0.0187465256405116</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.780178488608907</v>
+        <v>-0.780178488608908</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0299662510901819</v>
+        <v>0.0299662510881832</v>
       </c>
     </row>
     <row r="129">
@@ -3733,16 +3733,16 @@
         <v>246</v>
       </c>
       <c r="C129" t="n">
-        <v>1.68258922661222</v>
+        <v>1.68258922661208</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0000000139741654176305</v>
+        <v>0.0000000139741653583948</v>
       </c>
       <c r="E129" t="n">
         <v>1.25601340065509</v>
       </c>
       <c r="F129" t="n">
-        <v>0.00318532021328652</v>
+        <v>0.00318532021241046</v>
       </c>
     </row>
     <row r="130">
@@ -3753,16 +3753,16 @@
         <v>248</v>
       </c>
       <c r="C130" t="n">
-        <v>1.36521183581277</v>
+        <v>1.36521183581289</v>
       </c>
       <c r="D130" t="n">
-        <v>0.00232123456846209</v>
+        <v>0.00232123456835963</v>
       </c>
       <c r="E130" t="n">
-        <v>1.82531855086604</v>
+        <v>1.82531855086612</v>
       </c>
       <c r="F130" t="n">
-        <v>0.000126044996487215</v>
+        <v>0.000126044996445433</v>
       </c>
     </row>
     <row r="131">
@@ -3773,16 +3773,16 @@
         <v>250</v>
       </c>
       <c r="C131" t="n">
-        <v>1.61047657491425</v>
+        <v>1.61047657491443</v>
       </c>
       <c r="D131" t="n">
-        <v>0.00000000123423551732007</v>
+        <v>0.00000000123423550963209</v>
       </c>
       <c r="E131" t="n">
-        <v>1.42189899493382</v>
+        <v>1.42189899493384</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0000022448019990976</v>
+        <v>0.0000022448019982556</v>
       </c>
     </row>
     <row r="132">
@@ -3793,16 +3793,16 @@
         <v>252</v>
       </c>
       <c r="C132" t="n">
-        <v>1.01024876088993</v>
+        <v>1.01024876088997</v>
       </c>
       <c r="D132" t="n">
-        <v>0.000000065341252302842</v>
+        <v>0.0000000653412515847358</v>
       </c>
       <c r="E132" t="n">
         <v>1.06133967441643</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00000343396525111914</v>
+        <v>0.00000343396525099859</v>
       </c>
     </row>
     <row r="133">
@@ -3816,13 +3816,13 @@
         <v>-2.59604068380505</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00222992401878075</v>
+        <v>0.00222992401853742</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.95247954346271</v>
+        <v>-1.95247954346261</v>
       </c>
       <c r="F133" t="n">
-        <v>0.045873996797883</v>
+        <v>0.0458739967856376</v>
       </c>
     </row>
     <row r="134">
@@ -3833,16 +3833,16 @@
         <v>256</v>
       </c>
       <c r="C134" t="n">
-        <v>4.30959791907755</v>
+        <v>4.30959791907774</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0170112684475557</v>
+        <v>0.0170112684482671</v>
       </c>
       <c r="E134" t="n">
-        <v>5.85261062220342</v>
+        <v>5.85261062220191</v>
       </c>
       <c r="F134" t="n">
-        <v>0.00000000883674020292072</v>
+        <v>0.00000000883674019595448</v>
       </c>
     </row>
     <row r="135">
@@ -3853,16 +3853,16 @@
         <v>258</v>
       </c>
       <c r="C135" t="n">
-        <v>0.874283313517964</v>
+        <v>0.874283313517988</v>
       </c>
       <c r="D135" t="n">
-        <v>0.000217592296615992</v>
+        <v>0.000217592295489142</v>
       </c>
       <c r="E135" t="n">
-        <v>0.785839939656421</v>
+        <v>0.785839939656423</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0170741963450527</v>
+        <v>0.0170741963446511</v>
       </c>
     </row>
     <row r="136">
@@ -3873,16 +3873,16 @@
         <v>260</v>
       </c>
       <c r="C136" t="n">
-        <v>2.07585053265</v>
+        <v>2.07585053265017</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0027857773997164</v>
+        <v>0.00278577739914995</v>
       </c>
       <c r="E136" t="n">
-        <v>2.00036490485653</v>
+        <v>2.00036490485669</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0113453966183181</v>
+        <v>0.0113453966156506</v>
       </c>
     </row>
     <row r="137">
@@ -3893,16 +3893,16 @@
         <v>262</v>
       </c>
       <c r="C137" t="n">
-        <v>-8.11177056176752</v>
+        <v>-8.11177056176753</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00000896264696149883</v>
+        <v>0.00000896264696172489</v>
       </c>
       <c r="E137" t="n">
-        <v>-5.72904267382439</v>
+        <v>-5.72904267382153</v>
       </c>
       <c r="F137" t="n">
-        <v>0.000582293207063254</v>
+        <v>0.000582293206879066</v>
       </c>
     </row>
     <row r="138">
@@ -3916,13 +3916,13 @@
         <v>-1.03671328405075</v>
       </c>
       <c r="D138" t="n">
-        <v>0.00126313068538319</v>
+        <v>0.00126313068250498</v>
       </c>
       <c r="E138" t="n">
-        <v>-1.0483346602664</v>
+        <v>-1.04833466026647</v>
       </c>
       <c r="F138" t="n">
-        <v>0.00438098071706267</v>
+        <v>0.00438098071607315</v>
       </c>
     </row>
     <row r="139">
@@ -3933,16 +3933,16 @@
         <v>266</v>
       </c>
       <c r="C139" t="n">
-        <v>1.46389935937504</v>
+        <v>1.46389935937501</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00000000472765190930302</v>
+        <v>0.00000000472765188032519</v>
       </c>
       <c r="E139" t="n">
-        <v>1.65247930755632</v>
+        <v>1.65247930755629</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0000000593411259833972</v>
+        <v>0.0000000593411259561393</v>
       </c>
     </row>
     <row r="140">
@@ -3954,13 +3954,13 @@
         <v>2.34380851978486</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0044651998945151</v>
+        <v>0.00446519989198414</v>
       </c>
       <c r="E140" t="n">
-        <v>2.23712172514933</v>
+        <v>2.23712172514937</v>
       </c>
       <c r="F140" t="n">
-        <v>0.00289782103512969</v>
+        <v>0.002897821034366</v>
       </c>
     </row>
     <row r="141">
@@ -3971,16 +3971,16 @@
         <v>269</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.09460688258443</v>
+        <v>-1.09460688258457</v>
       </c>
       <c r="D141" t="n">
-        <v>0.00198435391619088</v>
+        <v>0.00198435391237659</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.15672144865402</v>
+        <v>-1.15672144865404</v>
       </c>
       <c r="F141" t="n">
-        <v>0.000491429388005726</v>
+        <v>0.000491429387857706</v>
       </c>
     </row>
     <row r="142">
@@ -3991,16 +3991,16 @@
         <v>271</v>
       </c>
       <c r="C142" t="n">
-        <v>2.9326319606767</v>
+        <v>2.93263196067671</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0276053763698882</v>
+        <v>0.0276053763696199</v>
       </c>
       <c r="E142" t="n">
-        <v>3.72848676202682</v>
+        <v>3.72848676202727</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0000294945921379119</v>
+        <v>0.0000294945921211998</v>
       </c>
     </row>
     <row r="143">
@@ -4011,16 +4011,16 @@
         <v>273</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.937239067984402</v>
+        <v>-0.937239067984428</v>
       </c>
       <c r="D143" t="n">
-        <v>0.00113807806521581</v>
+        <v>0.00113807806077741</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.906921231942016</v>
+        <v>-0.906921231942011</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0256154716047065</v>
+        <v>0.0256154716047106</v>
       </c>
     </row>
     <row r="144">
@@ -4031,16 +4031,16 @@
         <v>275</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.875181098194123</v>
+        <v>-0.875181098193908</v>
       </c>
       <c r="D144" t="n">
-        <v>0.00391170362673458</v>
+        <v>0.00391170361714891</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.987158210952434</v>
+        <v>-0.987158210952385</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00561632988145198</v>
+        <v>0.00561632988056652</v>
       </c>
     </row>
     <row r="145">
@@ -4051,16 +4051,16 @@
         <v>277</v>
       </c>
       <c r="C145" t="n">
-        <v>-2.01247166754518</v>
+        <v>-2.01247166754551</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0000000000000000000495775280419559</v>
+        <v>0.0000000000000000000495775272670307</v>
       </c>
       <c r="E145" t="n">
-        <v>-1.90365999534868</v>
+        <v>-1.90365999534865</v>
       </c>
       <c r="F145" t="n">
-        <v>0.00000000796277930037197</v>
+        <v>0.00000000796277929798122</v>
       </c>
     </row>
     <row r="146">
@@ -4071,16 +4071,16 @@
         <v>279</v>
       </c>
       <c r="C146" t="n">
-        <v>1.28213591879591</v>
+        <v>1.28213591879584</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0000197442595352198</v>
+        <v>0.0000197442594719827</v>
       </c>
       <c r="E146" t="n">
-        <v>1.00762745619003</v>
+        <v>1.00762745619004</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0121122584553105</v>
+        <v>0.0121122584542969</v>
       </c>
     </row>
     <row r="147">
@@ -4091,16 +4091,16 @@
         <v>281</v>
       </c>
       <c r="C147" t="n">
-        <v>3.73331850846153</v>
+        <v>3.73331850846126</v>
       </c>
       <c r="D147" t="n">
-        <v>0.000000000000000000977249969355385</v>
+        <v>0.000000000000000000977249965490008</v>
       </c>
       <c r="E147" t="n">
-        <v>5.00315338567222</v>
+        <v>5.00315338567215</v>
       </c>
       <c r="F147" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000176459790153296</v>
+        <v>0.00000000000000000000000000000000000000000000000000176459789720657</v>
       </c>
     </row>
     <row r="148">
@@ -4111,16 +4111,16 @@
         <v>283</v>
       </c>
       <c r="C148" t="n">
-        <v>0.672201474594725</v>
+        <v>0.672201474594621</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0107299270120077</v>
+        <v>0.0107299270013178</v>
       </c>
       <c r="E148" t="n">
-        <v>0.977965315656208</v>
+        <v>0.977965315656203</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0000971226944526423</v>
+        <v>0.0000971226944452645</v>
       </c>
     </row>
   </sheetData>

--- a/output/Restab_D62_NTCwRAPA_DIFF_RAPA.xlsx
+++ b/output/Restab_D62_NTCwRAPA_DIFF_RAPA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t xml:space="preserve">entrezgene</t>
   </si>
@@ -125,6 +125,9 @@
     <t xml:space="preserve">50486</t>
   </si>
   <si>
+    <t xml:space="preserve">G0S2</t>
+  </si>
+  <si>
     <t xml:space="preserve">7044</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
     <t xml:space="preserve">84858</t>
   </si>
   <si>
+    <t xml:space="preserve">ZNF503</t>
+  </si>
+  <si>
     <t xml:space="preserve">2674</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
     <t xml:space="preserve">26153</t>
   </si>
   <si>
+    <t xml:space="preserve">KIF26A</t>
+  </si>
+  <si>
     <t xml:space="preserve">7057</t>
   </si>
   <si>
@@ -323,6 +332,9 @@
     <t xml:space="preserve">57687</t>
   </si>
   <si>
+    <t xml:space="preserve">VAT1L</t>
+  </si>
+  <si>
     <t xml:space="preserve">5187</t>
   </si>
   <si>
@@ -332,6 +344,9 @@
     <t xml:space="preserve">201161</t>
   </si>
   <si>
+    <t xml:space="preserve">CENPV</t>
+  </si>
+  <si>
     <t xml:space="preserve">7153</t>
   </si>
   <si>
@@ -341,6 +356,9 @@
     <t xml:space="preserve">10882</t>
   </si>
   <si>
+    <t xml:space="preserve">C1QL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">113026</t>
   </si>
   <si>
@@ -392,6 +410,9 @@
     <t xml:space="preserve">404217</t>
   </si>
   <si>
+    <t xml:space="preserve">CTXN1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1995</t>
   </si>
   <si>
@@ -425,6 +446,9 @@
     <t xml:space="preserve">3625</t>
   </si>
   <si>
+    <t xml:space="preserve">INHBB</t>
+  </si>
+  <si>
     <t xml:space="preserve">2995</t>
   </si>
   <si>
@@ -506,6 +530,9 @@
     <t xml:space="preserve">116448</t>
   </si>
   <si>
+    <t xml:space="preserve">OLIG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1827</t>
   </si>
   <si>
@@ -593,9 +620,15 @@
     <t xml:space="preserve">83888</t>
   </si>
   <si>
+    <t xml:space="preserve">FGFBP2</t>
+  </si>
+  <si>
     <t xml:space="preserve">201780</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC10A4</t>
+  </si>
+  <si>
     <t xml:space="preserve">23284</t>
   </si>
   <si>
@@ -617,6 +650,9 @@
     <t xml:space="preserve">134121</t>
   </si>
   <si>
+    <t xml:space="preserve">C5orf49</t>
+  </si>
+  <si>
     <t xml:space="preserve">8507</t>
   </si>
   <si>
@@ -674,6 +710,9 @@
     <t xml:space="preserve">51617</t>
   </si>
   <si>
+    <t xml:space="preserve">NSG2</t>
+  </si>
+  <si>
     <t xml:space="preserve">10814</t>
   </si>
   <si>
@@ -695,6 +734,9 @@
     <t xml:space="preserve">3400</t>
   </si>
   <si>
+    <t xml:space="preserve">ID4</t>
+  </si>
+  <si>
     <t xml:space="preserve">10590</t>
   </si>
   <si>
@@ -816,6 +858,9 @@
   </si>
   <si>
     <t xml:space="preserve">9568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GABBR2</t>
   </si>
   <si>
     <t xml:space="preserve">54566</t>
@@ -1519,7 +1564,9 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
       <c r="C17" t="n">
         <v>-2.14518715925798</v>
       </c>
@@ -1535,10 +1582,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="n">
         <v>-1.1468367114161</v>
@@ -1555,10 +1602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="n">
         <v>2.34365571060342</v>
@@ -1575,10 +1622,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
         <v>3.8846115930659</v>
@@ -1595,9 +1642,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21"/>
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
       <c r="C21" t="n">
         <v>1.80626795255316</v>
       </c>
@@ -1613,10 +1662,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="n">
         <v>-1.72766731926101</v>
@@ -1633,10 +1682,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" t="n">
         <v>0.926512129369656</v>
@@ -1653,10 +1702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" t="n">
         <v>2.94825769287597</v>
@@ -1673,10 +1722,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
         <v>2.38800073651724</v>
@@ -1693,10 +1742,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" t="n">
         <v>-0.748039305831983</v>
@@ -1713,10 +1762,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="n">
         <v>3.28919560055945</v>
@@ -1733,10 +1782,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" t="n">
         <v>0.665471431834361</v>
@@ -1753,10 +1802,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>1.87765503327449</v>
@@ -1773,10 +1822,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" t="n">
         <v>1.51906106975509</v>
@@ -1793,10 +1842,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" t="n">
         <v>1.21064153393831</v>
@@ -1813,10 +1862,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>1.66837276169955</v>
@@ -1833,7 +1882,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="n">
@@ -1851,10 +1900,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" t="n">
         <v>-2.04234229728567</v>
@@ -1871,10 +1920,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" t="n">
         <v>1.62937478493247</v>
@@ -1891,10 +1940,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" t="n">
         <v>0.964957965702439</v>
@@ -1911,10 +1960,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" t="n">
         <v>0.754947599210019</v>
@@ -1931,10 +1980,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C38" t="n">
         <v>1.76340566144637</v>
@@ -1951,10 +2000,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" t="n">
         <v>-1.573866614971</v>
@@ -1971,10 +2020,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C40" t="n">
         <v>2.00171821112914</v>
@@ -1991,9 +2040,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41"/>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
       <c r="C41" t="n">
         <v>4.94398717967191</v>
       </c>
@@ -2009,10 +2060,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C42" t="n">
         <v>1.36709065476874</v>
@@ -2029,10 +2080,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" t="n">
         <v>0.973171407153366</v>
@@ -2049,10 +2100,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C44" t="n">
         <v>1.5301080089934</v>
@@ -2069,10 +2120,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C45" t="n">
         <v>2.68068551717351</v>
@@ -2089,10 +2140,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" t="n">
         <v>-3.89068837460214</v>
@@ -2109,10 +2160,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C47" t="n">
         <v>-0.696540384991865</v>
@@ -2129,10 +2180,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C48" t="n">
         <v>-6.4499033066015</v>
@@ -2149,10 +2200,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C49" t="n">
         <v>-4.57472491115539</v>
@@ -2169,10 +2220,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C50" t="n">
         <v>3.11380048592407</v>
@@ -2189,10 +2240,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C51" t="n">
         <v>1.97315089704994</v>
@@ -2209,9 +2260,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52"/>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
       <c r="C52" t="n">
         <v>1.06766105290096</v>
       </c>
@@ -2227,10 +2280,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C53" t="n">
         <v>1.61725453456082</v>
@@ -2247,9 +2300,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
       <c r="C54" t="n">
         <v>1.07412218630215</v>
       </c>
@@ -2265,10 +2320,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C55" t="n">
         <v>0.890588049877223</v>
@@ -2285,9 +2340,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56"/>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
       <c r="C56" t="n">
         <v>-1.24763823228435</v>
       </c>
@@ -2303,10 +2360,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C57" t="n">
         <v>-0.713999525800279</v>
@@ -2323,10 +2380,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C58" t="n">
         <v>-2.2035302027964</v>
@@ -2343,10 +2400,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C59" t="n">
         <v>1.25199977895496</v>
@@ -2363,10 +2420,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C60" t="n">
         <v>-4.53091381838816</v>
@@ -2383,10 +2440,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C61" t="n">
         <v>2.56358781716702</v>
@@ -2403,10 +2460,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C62" t="n">
         <v>1.945293865662</v>
@@ -2423,10 +2480,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C63" t="n">
         <v>2.30740945716331</v>
@@ -2443,10 +2500,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C64" t="n">
         <v>-0.655705425891648</v>
@@ -2463,9 +2520,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
       <c r="C65" t="n">
         <v>1.06545689152942</v>
       </c>
@@ -2481,10 +2540,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C66" t="n">
         <v>1.38583140911246</v>
@@ -2501,10 +2560,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C67" t="n">
         <v>-0.7426862270626</v>
@@ -2521,10 +2580,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C68" t="n">
         <v>-2.32844571450647</v>
@@ -2541,10 +2600,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C69" t="n">
         <v>2.1683526719269</v>
@@ -2561,10 +2620,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C70" t="n">
         <v>-5.22020735651629</v>
@@ -2581,9 +2640,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71"/>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
+      </c>
       <c r="C71" t="n">
         <v>-0.97676441545352</v>
       </c>
@@ -2599,10 +2660,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C72" t="n">
         <v>-2.33748855069324</v>
@@ -2619,10 +2680,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C73" t="n">
         <v>1.7750558633618</v>
@@ -2639,10 +2700,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C74" t="n">
         <v>2.36406260303249</v>
@@ -2659,10 +2720,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C75" t="n">
         <v>-5.20426807073288</v>
@@ -2679,10 +2740,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C76" t="n">
         <v>-1.32579062391474</v>
@@ -2699,10 +2760,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C77" t="n">
         <v>1.03468184670831</v>
@@ -2719,10 +2780,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C78" t="n">
         <v>-1.20714063620599</v>
@@ -2739,10 +2800,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C79" t="n">
         <v>-1.38444844797123</v>
@@ -2759,10 +2820,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C80" t="n">
         <v>1.19503691524763</v>
@@ -2779,10 +2840,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C81" t="n">
         <v>1.75479138995882</v>
@@ -2799,10 +2860,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C82" t="n">
         <v>3.68777828569397</v>
@@ -2819,10 +2880,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C83" t="n">
         <v>-1.42898759954476</v>
@@ -2839,10 +2900,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C84" t="n">
         <v>1.0634763094535</v>
@@ -2859,9 +2920,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>163</v>
-      </c>
-      <c r="B85"/>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
       <c r="C85" t="n">
         <v>-1.15274374860809</v>
       </c>
@@ -2877,10 +2940,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C86" t="n">
         <v>0.71871312678435</v>
@@ -2897,10 +2960,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C87" t="n">
         <v>1.94925550553469</v>
@@ -2917,10 +2980,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C88" t="n">
         <v>1.91513300618621</v>
@@ -2937,10 +3000,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C89" t="n">
         <v>-1.94322268158488</v>
@@ -2957,10 +3020,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C90" t="n">
         <v>3.43708700638776</v>
@@ -2977,10 +3040,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C91" t="n">
         <v>1.50175713664993</v>
@@ -2997,10 +3060,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C92" t="n">
         <v>1.40330679603664</v>
@@ -3017,10 +3080,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C93" t="n">
         <v>6.85060043317066</v>
@@ -3037,10 +3100,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C94" t="n">
         <v>-4.54729350295726</v>
@@ -3057,10 +3120,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="C95" t="n">
         <v>0.729692493768536</v>
@@ -3077,10 +3140,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B96" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C96" t="n">
         <v>-3.71845643550398</v>
@@ -3097,10 +3160,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B97" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C97" t="n">
         <v>-1.09363549321766</v>
@@ -3117,10 +3180,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B98" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C98" t="n">
         <v>1.56645661707137</v>
@@ -3137,10 +3200,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C99" t="n">
         <v>-2.46595613133198</v>
@@ -3157,9 +3220,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100"/>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
+      </c>
       <c r="C100" t="n">
         <v>-1.95734672585141</v>
       </c>
@@ -3175,9 +3240,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101"/>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
+      </c>
       <c r="C101" t="n">
         <v>1.09355165792518</v>
       </c>
@@ -3193,10 +3260,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C102" t="n">
         <v>-3.37500332850447</v>
@@ -3213,10 +3280,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C103" t="n">
         <v>2.23291990183056</v>
@@ -3233,10 +3300,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="B104" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C104" t="n">
         <v>8.14861612590961</v>
@@ -3253,9 +3320,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>200</v>
-      </c>
-      <c r="B105"/>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
       <c r="C105" t="n">
         <v>1.96013346525975</v>
       </c>
@@ -3271,10 +3340,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C106" t="n">
         <v>0.905497241815859</v>
@@ -3291,10 +3360,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C107" t="n">
         <v>1.66689208369025</v>
@@ -3311,10 +3380,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C108" t="n">
         <v>-0.808231417493597</v>
@@ -3331,10 +3400,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C109" t="n">
         <v>-1.19527793898242</v>
@@ -3351,10 +3420,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C110" t="n">
         <v>2.438403223715</v>
@@ -3371,10 +3440,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C111" t="n">
         <v>0.709754113167119</v>
@@ -3391,10 +3460,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C112" t="n">
         <v>-1.30392328603338</v>
@@ -3411,10 +3480,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C113" t="n">
         <v>1.01465856950973</v>
@@ -3431,10 +3500,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C114" t="n">
         <v>1.90702143817324</v>
@@ -3451,9 +3520,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>219</v>
-      </c>
-      <c r="B115"/>
+        <v>231</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
       <c r="C115" t="n">
         <v>6.14288617522533</v>
       </c>
@@ -3469,10 +3540,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B116" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C116" t="n">
         <v>5.46098695334992</v>
@@ -3489,10 +3560,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C117" t="n">
         <v>0.64276212022266</v>
@@ -3509,10 +3580,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C118" t="n">
         <v>-0.934505687149744</v>
@@ -3529,9 +3600,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>226</v>
-      </c>
-      <c r="B119"/>
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
       <c r="C119" t="n">
         <v>1.04957361957371</v>
       </c>
@@ -3547,10 +3620,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C120" t="n">
         <v>3.41881214702148</v>
@@ -3567,10 +3640,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C121" t="n">
         <v>-8.81353788186957</v>
@@ -3587,10 +3660,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C122" t="n">
         <v>1.92860562795553</v>
@@ -3607,10 +3680,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C123" t="n">
         <v>0.995183154546526</v>
@@ -3627,10 +3700,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C124" t="n">
         <v>2.15772172958137</v>
@@ -3647,10 +3720,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C125" t="n">
         <v>-1.52882828116213</v>
@@ -3667,10 +3740,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C126" t="n">
         <v>3.15197988951129</v>
@@ -3687,10 +3760,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C127" t="n">
         <v>-0.782807158680928</v>
@@ -3707,10 +3780,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C128" t="n">
         <v>-0.617206048000207</v>
@@ -3727,10 +3800,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C129" t="n">
         <v>1.68258922661208</v>
@@ -3747,10 +3820,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C130" t="n">
         <v>1.36521183581289</v>
@@ -3767,10 +3840,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="C131" t="n">
         <v>1.61047657491443</v>
@@ -3787,10 +3860,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C132" t="n">
         <v>1.01024876088997</v>
@@ -3807,10 +3880,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C133" t="n">
         <v>-2.59604068380505</v>
@@ -3827,10 +3900,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C134" t="n">
         <v>4.30959791907774</v>
@@ -3847,10 +3920,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C135" t="n">
         <v>0.874283313517988</v>
@@ -3867,10 +3940,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C136" t="n">
         <v>2.07585053265017</v>
@@ -3887,10 +3960,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="C137" t="n">
         <v>-8.11177056176753</v>
@@ -3907,10 +3980,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="C138" t="n">
         <v>-1.03671328405075</v>
@@ -3927,10 +4000,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C139" t="n">
         <v>1.46389935937501</v>
@@ -3947,9 +4020,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140"/>
+        <v>281</v>
+      </c>
+      <c r="B140" t="s">
+        <v>282</v>
+      </c>
       <c r="C140" t="n">
         <v>2.34380851978486</v>
       </c>
@@ -3965,10 +4040,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B141" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C141" t="n">
         <v>-1.09460688258457</v>
@@ -3985,10 +4060,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C142" t="n">
         <v>2.93263196067671</v>
@@ -4005,10 +4080,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B143" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C143" t="n">
         <v>-0.937239067984428</v>
@@ -4025,10 +4100,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C144" t="n">
         <v>-0.875181098193908</v>
@@ -4045,10 +4120,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C145" t="n">
         <v>-2.01247166754551</v>
@@ -4065,10 +4140,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="C146" t="n">
         <v>1.28213591879584</v>
@@ -4085,10 +4160,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="C147" t="n">
         <v>3.73331850846126</v>
@@ -4105,10 +4180,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B148" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="C148" t="n">
         <v>0.672201474594621</v>
